--- a/data/OAV_2h_measurements.xlsx
+++ b/data/OAV_2h_measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au583430_uni_au_dk/Documents/Dokumenter/GitHub/Lemes-2022-digestate-NH3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{0056E2EE-68F9-4F0D-9333-BF3CB2E9913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8872086-BEB5-4C01-A84F-4C3116A65EC1}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{0056E2EE-68F9-4F0D-9333-BF3CB2E9913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62D0EA51-7241-4494-A853-BEC5000CEDBF}"/>
   <bookViews>
-    <workbookView xWindow="-31470" yWindow="6240" windowWidth="28800" windowHeight="11010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19245" yWindow="-765" windowWidth="17640" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Experiment</t>
   </si>
@@ -94,7 +94,13 @@
     <t>oav</t>
   </si>
   <si>
-    <t>OAV after 2 h</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>SOAV</t>
+  </si>
+  <si>
+    <t>time (h)</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +527,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,6 +546,9 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -551,6 +563,9 @@
       <c r="D3" s="3">
         <v>28.478192109377702</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -565,6 +580,9 @@
       <c r="D4" s="3">
         <v>25.795751233127163</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -579,6 +597,9 @@
       <c r="D5" s="3">
         <v>32.734756575361814</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -593,7 +614,9 @@
       <c r="D6" s="3">
         <v>47.800121605407192</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -608,6 +631,9 @@
       <c r="D7" s="3">
         <v>68.068257611104812</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -622,6 +648,9 @@
       <c r="D8" s="3">
         <v>55.821664636287153</v>
       </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -636,7 +665,9 @@
       <c r="D9" s="3">
         <v>51.322045408592977</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -651,6 +682,9 @@
       <c r="D10" s="3">
         <v>67.971405163960853</v>
       </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -665,6 +699,9 @@
       <c r="D11" s="3">
         <v>60.989499842818844</v>
       </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -679,6 +716,9 @@
       <c r="D12" s="4">
         <v>80.395539475562529</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -693,7 +733,9 @@
       <c r="D13" s="4">
         <v>61.410722044123247</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -708,6 +750,9 @@
       <c r="D14" s="4">
         <v>69.675268028400154</v>
       </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -722,6 +767,9 @@
       <c r="D15" s="4">
         <v>137.32264685890172</v>
       </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -736,7 +784,9 @@
       <c r="D16" s="4">
         <v>115.82526472472432</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -751,6 +801,9 @@
       <c r="D17" s="4">
         <v>154.73251087335197</v>
       </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -765,6 +818,9 @@
       <c r="D18" s="4">
         <v>178.04078047908121</v>
       </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -779,6 +835,9 @@
       <c r="D19" s="4">
         <v>185.09830476295085</v>
       </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,6 +852,9 @@
       </c>
       <c r="D20" s="4">
         <v>174.87648874295758</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
